--- a/ビブ確認/Bib集計結果.xlsx
+++ b/ビブ確認/Bib集計結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashiayano/Desktop/東医体/ビブ確認/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F889EBA2-8D45-A844-850D-43AE3122E678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF61FD6-9623-2648-AF2B-088A545E805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="男子SG" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="293">
   <si>
     <t>大学</t>
   </si>
@@ -655,9 +655,6 @@
     <t>29, 56, 88</t>
   </si>
   <si>
-    <t>2, 21, 64, 80, 117, 128, 149, 157, 164</t>
-  </si>
-  <si>
     <t>26, 59, 85, 113</t>
   </si>
   <si>
@@ -667,12 +664,6 @@
     <t>5, 12, 73</t>
   </si>
   <si>
-    <t>41, 44, 98, 101, 140, 143, 160</t>
-  </si>
-  <si>
-    <t>4, 6, 15, 70, 75, 122, 124, 153, 154, 166</t>
-  </si>
-  <si>
     <t>33, 52, 91, 108, 134</t>
   </si>
   <si>
@@ -694,9 +685,6 @@
     <t>22, 63, 81, 116</t>
   </si>
   <si>
-    <t>34, 51</t>
-  </si>
-  <si>
     <t>16, 69</t>
   </si>
   <si>
@@ -706,9 +694,6 @@
     <t>20, 65, 79, 118, 127, 150</t>
   </si>
   <si>
-    <t>28, 57, 87, 111</t>
-  </si>
-  <si>
     <t>42, 43, 99, 100, 141, 142, 161</t>
   </si>
   <si>
@@ -718,28 +703,13 @@
     <t>37, 48, 94, 105, 137</t>
   </si>
   <si>
-    <t>40, 45, 97, 102, 139</t>
-  </si>
-  <si>
     <t>24, 61, 83, 114, 130</t>
   </si>
   <si>
     <t>8, 14, 71, 74, 123</t>
   </si>
   <si>
-    <t>10, 23, 62, 82, 115, 129</t>
-  </si>
-  <si>
     <t>31, 54, 90, 109, 133, 146</t>
-  </si>
-  <si>
-    <t>9, 11, 38, 47, 95, 104, 138, 144</t>
-  </si>
-  <si>
-    <t>32, 53</t>
-  </si>
-  <si>
-    <t>30, 55, 89, 110, 132, 147, 159, 162, 168, 169, 172</t>
   </si>
   <si>
     <t>18, 68</t>
@@ -948,6 +918,38 @@
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ゴウケイ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10, 23, 62, 82, 115</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2, 21, 64, 80, 117, 128, 157, 164</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9, 38, 47, 95, 104, 138, 144</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30, 55, 89, 110, 132, 147, 159, 162, 168, 172</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>44, 98,140,160</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>28, 57, 87</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40, 45, 97, 102</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4, 6, 15, 70, 75, 122, 124, 153,166</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1050,14 +1052,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1769,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1780,7 +1782,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1791,7 +1793,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1802,7 +1804,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1813,7 +1815,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1824,7 +1826,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1835,7 +1837,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1857,7 +1859,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1893,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1904,7 +1906,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1915,7 +1917,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1926,7 +1928,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1937,7 +1939,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1948,7 +1950,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1970,7 +1972,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1992,7 +1994,7 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -2003,7 +2005,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -2014,7 +2016,7 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2036,7 +2038,7 @@
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -2047,7 +2049,7 @@
         <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2058,7 +2060,7 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -2094,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2105,7 +2107,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2116,7 +2118,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -2127,7 +2129,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2985,7 +2987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
@@ -3003,279 +3005,279 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="5">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="D2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
         <f>SUM(C2+E2)</f>
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F15" si="0">SUM(C3+E3)</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E4" s="5">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D4" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>8</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="4">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="4">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E15" s="5">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3638,9 +3640,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -3949,9 +3957,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="A1:C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -3965,349 +3979,347 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5">
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="9">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="4">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8">
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9">
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32">
-        <v>11</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4">
+        <f>SUM(C2:C31)</f>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4335,7 +4347,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4346,7 +4358,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4357,7 +4369,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -4368,7 +4380,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4379,7 +4391,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -4390,7 +4402,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -4401,7 +4413,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4412,7 +4424,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -4423,7 +4435,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -4434,7 +4446,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -4445,7 +4457,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -4456,7 +4468,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -4467,7 +4479,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -4478,7 +4490,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4489,7 +4501,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -4500,7 +4512,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -4511,7 +4523,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4522,7 +4534,7 @@
         <v>189</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -4533,7 +4545,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -4544,7 +4556,7 @@
         <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -4555,7 +4567,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -4566,7 +4578,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4577,7 +4589,7 @@
         <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4588,7 +4600,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4599,7 +4611,7 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4610,7 +4622,7 @@
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4621,7 +4633,7 @@
         <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -4632,7 +4644,7 @@
         <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -4643,7 +4655,7 @@
         <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4654,7 +4666,7 @@
         <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -4665,7 +4677,7 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C32">
         <v>11</v>

--- a/ビブ確認/Bib集計結果.xlsx
+++ b/ビブ確認/Bib集計結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashiayano/Desktop/東医体/ビブ確認/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF61FD6-9623-2648-AF2B-088A545E805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B1C434-DF71-BC4B-A49E-7C11AFE69A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="男子SG" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="292">
   <si>
     <t>大学</t>
   </si>
@@ -58,15 +58,9 @@
     <t>信州大学</t>
   </si>
   <si>
-    <t>53, 58, 109, 114, 151, 154</t>
-  </si>
-  <si>
     <t>北海道大学</t>
   </si>
   <si>
-    <t>2, 21, 48, 63, 105, 118, 147, 157, 180, 186, 199, 203, 209, 212, 215, 218</t>
-  </si>
-  <si>
     <t>北里大学</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>国際医療福祉大学</t>
   </si>
   <si>
-    <t>35, 76, 93, 128, 139, 164, 173</t>
-  </si>
-  <si>
     <t>埼玉医科大学</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t>山形大学</t>
   </si>
   <si>
-    <t>46, 65, 103, 120, 145, 158, 179, 187, 198, 204</t>
-  </si>
-  <si>
     <t>岩手医科大学</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>帝京大学</t>
   </si>
   <si>
-    <t>1, 45, 66, 102, 121, 144, 159, 178, 188</t>
-  </si>
-  <si>
     <t>弘前大学</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>慶応義塾大学</t>
   </si>
   <si>
-    <t>37, 74, 95</t>
-  </si>
-  <si>
     <t>新潟大学</t>
   </si>
   <si>
@@ -130,15 +112,9 @@
     <t>日本医科大学</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>日本大学</t>
   </si>
   <si>
-    <t>18, 42, 69, 100, 123, 142, 161, 176</t>
-  </si>
-  <si>
     <t>旭川医科大学</t>
   </si>
   <si>
@@ -154,9 +130,6 @@
     <t>札幌医科大学</t>
   </si>
   <si>
-    <t>15, 16, 22, 30, 80, 89, 131, 137, 166, 171</t>
-  </si>
-  <si>
     <t>杏林大学</t>
   </si>
   <si>
@@ -166,15 +139,9 @@
     <t>東京医科大学</t>
   </si>
   <si>
-    <t>3, 13, 47, 64, 104, 119, 146</t>
-  </si>
-  <si>
     <t>東京大学</t>
   </si>
   <si>
-    <t>50, 61, 106, 117, 148</t>
-  </si>
-  <si>
     <t>東京慈恵会医科大学</t>
   </si>
   <si>
@@ -190,9 +157,6 @@
     <t>東北大学</t>
   </si>
   <si>
-    <t>10, 20, 54, 57, 110, 113, 152, 153, 183, 184, 201, 202, 210, 211, 216, 217, 221, 222</t>
-  </si>
-  <si>
     <t>東邦大学</t>
   </si>
   <si>
@@ -202,9 +166,6 @@
     <t>獨協医科大学</t>
   </si>
   <si>
-    <t>17, 28, 82, 87, 132, 136, 167, 170, 192, 195, 206, 207</t>
-  </si>
-  <si>
     <t>福島県立医科大学</t>
   </si>
   <si>
@@ -214,9 +175,6 @@
     <t>秋田大学</t>
   </si>
   <si>
-    <t>31, 79, 90, 130, 138, 165, 172</t>
-  </si>
-  <si>
     <t>筑波大学</t>
   </si>
   <si>
@@ -242,9 +200,6 @@
   </si>
   <si>
     <t>順天堂大学</t>
-  </si>
-  <si>
-    <t>32, 78, 91, 129</t>
   </si>
   <si>
     <t>47, 72, 114, 139, 176, 196, 230</t>
@@ -950,6 +905,62 @@
   </si>
   <si>
     <t>4, 6, 15, 70, 75, 122, 124, 153,166</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>31, 79, 90, 130, 138, 165</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>37, 74</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>35, 76, 93, 139, 164, 173</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15, 16, 30, 80, 89, 131, 166, 171</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>78, 91, 129</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>53, 58, 114, 151</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>121, 144, 159, 188</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>13, 64,119</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50, 61, 106, 117</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10, 20, 54, 57, 110, 113, 152, 153, 183, 184, 202, 211, 216, 217</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17, 28, 82, 87, 132, 136, 167, 170, 195, 206, 207</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18, 42, 69, 100, 123,161, 176</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2, 21, 48, 63, 105, 118,157, 180, 186, 203, 209, 212, 215, 218</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>46, 65, 120, 145, 158, 179, 187, 198</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1362,9 +1373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1385,263 +1398,263 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1649,32 +1662,32 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -1682,60 +1695,52 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
+    <sortCondition ref="A2:A32"/>
+  </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1768,10 +1773,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1779,10 +1784,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1790,10 +1795,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1801,10 +1806,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1812,10 +1817,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1823,10 +1828,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1834,10 +1839,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1845,10 +1850,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1856,10 +1861,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1892,10 +1897,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1903,10 +1908,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1914,10 +1919,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1925,10 +1930,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1936,10 +1941,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1947,10 +1952,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1958,10 +1963,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1969,10 +1974,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1980,10 +1985,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1991,10 +1996,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -2002,10 +2007,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -2013,10 +2018,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2024,10 +2029,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2035,10 +2040,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -2046,10 +2051,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2057,10 +2062,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -2093,10 +2098,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2104,10 +2109,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2115,10 +2120,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -2126,10 +2131,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2137,10 +2142,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2148,10 +2153,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2187,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -2195,10 +2200,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -2206,10 +2211,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -2217,10 +2222,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -2228,10 +2233,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -2239,10 +2244,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2250,10 +2255,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -2261,10 +2266,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -2272,10 +2277,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2283,10 +2288,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2294,10 +2299,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2305,10 +2310,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -2316,10 +2321,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -2327,10 +2332,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -2338,10 +2343,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -2349,10 +2354,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -2360,10 +2365,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -2371,10 +2376,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -2382,10 +2387,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2393,10 +2398,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -2404,10 +2409,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -2415,10 +2420,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -2426,10 +2431,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -2437,10 +2442,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -2448,10 +2453,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <v>18</v>
@@ -2459,10 +2464,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -2470,10 +2475,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -2481,10 +2486,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -2492,10 +2497,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -2503,10 +2508,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -2514,10 +2519,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -2525,10 +2530,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -2536,10 +2541,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -2547,10 +2552,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2558,10 +2563,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -2597,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -2605,10 +2610,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -2616,10 +2621,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -2627,10 +2632,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -2638,10 +2643,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -2649,10 +2654,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2660,10 +2665,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -2671,10 +2676,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -2682,10 +2687,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -2693,10 +2698,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2704,10 +2709,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2715,10 +2720,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -2726,10 +2731,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -2737,10 +2742,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2748,10 +2753,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -2759,10 +2764,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -2770,10 +2775,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -2781,10 +2786,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -2792,10 +2797,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -2803,10 +2808,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -2814,10 +2819,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -2825,10 +2830,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -2836,10 +2841,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -2847,10 +2852,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -2858,10 +2863,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C26">
         <v>18</v>
@@ -2869,10 +2874,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -2880,10 +2885,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -2891,10 +2896,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -2902,10 +2907,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -2913,10 +2918,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -2924,10 +2929,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -2935,10 +2940,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -2946,10 +2951,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2957,10 +2962,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2968,10 +2973,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -3005,33 +3010,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C2" s="4">
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
@@ -3043,16 +3048,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E3" s="4">
         <v>4</v>
@@ -3064,16 +3069,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C4" s="4">
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E4" s="4">
         <v>5</v>
@@ -3085,10 +3090,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -3102,10 +3107,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -3119,16 +3124,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
@@ -3140,16 +3145,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E8" s="4">
         <v>4</v>
@@ -3161,16 +3166,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C9" s="4">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E9" s="4">
         <v>7</v>
@@ -3182,10 +3187,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -3199,10 +3204,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
@@ -3216,10 +3221,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C12" s="4">
         <v>4</v>
@@ -3233,12 +3238,12 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="4"/>
       <c r="D13" s="8" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -3250,12 +3255,12 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -3267,12 +3272,12 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="8" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E15" s="4">
         <v>5</v>
@@ -3310,10 +3315,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C2">
         <v>15</v>
@@ -3321,10 +3326,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -3332,10 +3337,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3343,10 +3348,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -3354,10 +3359,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3365,10 +3370,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -3376,10 +3381,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3387,10 +3392,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -3398,10 +3403,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -3409,10 +3414,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3420,10 +3425,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3431,10 +3436,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -3442,10 +3447,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3453,10 +3458,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C15">
         <v>22</v>
@@ -3464,10 +3469,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3475,10 +3480,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -3486,10 +3491,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3497,10 +3502,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -3508,10 +3513,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -3544,10 +3549,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C2">
         <v>15</v>
@@ -3555,10 +3560,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3566,10 +3571,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3577,10 +3582,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3588,10 +3593,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -3599,10 +3604,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -3610,10 +3615,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -3621,10 +3626,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -3640,14 +3645,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3666,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -3674,10 +3679,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -3685,10 +3690,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3696,10 +3701,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3707,10 +3712,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3718,10 +3723,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3729,10 +3734,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3740,10 +3745,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -3751,10 +3756,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3762,10 +3767,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -3773,10 +3778,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3784,10 +3789,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3795,10 +3800,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3806,10 +3811,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3817,10 +3822,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3828,10 +3833,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3839,10 +3844,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3850,10 +3855,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -3861,10 +3866,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -3872,10 +3877,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -3883,10 +3888,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -3894,10 +3899,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -3905,10 +3910,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -3916,10 +3921,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -3927,10 +3932,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -3938,10 +3943,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -3957,7 +3962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="A1:C32"/>
     </sheetView>
   </sheetViews>
@@ -3983,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -3991,10 +3996,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -4002,10 +4007,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C4" s="4">
         <v>8</v>
@@ -4013,10 +4018,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -4024,10 +4029,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4035,10 +4040,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -4046,10 +4051,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -4057,10 +4062,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C9" s="4">
         <v>9</v>
@@ -4068,10 +4073,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -4079,10 +4084,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
@@ -4090,10 +4095,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C12" s="4">
         <v>4</v>
@@ -4101,10 +4106,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C13" s="4">
         <v>8</v>
@@ -4112,10 +4117,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C14" s="4">
         <v>7</v>
@@ -4123,10 +4128,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C15" s="4">
         <v>6</v>
@@ -4134,10 +4139,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C16" s="4">
         <v>4</v>
@@ -4145,7 +4150,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B17" s="9">
         <v>34</v>
@@ -4156,10 +4161,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -4167,10 +4172,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C19" s="4">
         <v>15</v>
@@ -4178,10 +4183,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C20" s="4">
         <v>6</v>
@@ -4189,10 +4194,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C21" s="4">
         <v>3</v>
@@ -4200,10 +4205,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C22" s="4">
         <v>7</v>
@@ -4211,10 +4216,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C23" s="4">
         <v>6</v>
@@ -4222,10 +4227,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C24" s="4">
         <v>5</v>
@@ -4233,10 +4238,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C25" s="4">
         <v>4</v>
@@ -4244,10 +4249,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C26" s="4">
         <v>5</v>
@@ -4255,10 +4260,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C27" s="4">
         <v>5</v>
@@ -4266,10 +4271,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C28" s="4">
         <v>5</v>
@@ -4277,10 +4282,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C29" s="4">
         <v>6</v>
@@ -4288,10 +4293,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C30" s="4">
         <v>7</v>
@@ -4299,10 +4304,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
@@ -4347,7 +4352,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4355,10 +4360,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4366,10 +4371,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -4377,10 +4382,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4388,10 +4393,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -4399,10 +4404,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -4410,10 +4415,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4421,10 +4426,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -4432,10 +4437,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -4443,10 +4448,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -4454,10 +4459,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -4465,10 +4470,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -4476,10 +4481,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -4487,10 +4492,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4498,10 +4503,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -4509,10 +4514,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -4520,10 +4525,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4531,10 +4536,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -4542,10 +4547,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -4553,10 +4558,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -4564,10 +4569,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -4575,10 +4580,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4586,10 +4591,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4597,10 +4602,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4608,10 +4613,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4619,10 +4624,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4630,10 +4635,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -4641,10 +4646,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -4652,10 +4657,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4663,10 +4668,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -4674,10 +4679,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C32">
         <v>11</v>
